--- a/Участие.xlsx
+++ b/Участие.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Oshibki_novichka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB998735-68DC-46AA-9A7F-CD6DD566FB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EBC8A8-2BC3-4469-921F-787F3809DAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2145" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Имя</t>
   </si>
   <si>
-    <t>Разработка</t>
-  </si>
-  <si>
-    <t>Дизайн</t>
-  </si>
-  <si>
-    <t>Менеджмент</t>
-  </si>
-  <si>
     <t>Колобкова Елизавета</t>
   </si>
   <si>
@@ -48,13 +39,37 @@
     <t>Ознобихин Дмитрий</t>
   </si>
   <si>
-    <t xml:space="preserve"> +  -  -</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +  +  -</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +  +  +</t>
+    <t xml:space="preserve">Тесты </t>
+  </si>
+  <si>
+    <t>Кнопки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конфликты </t>
+  </si>
+  <si>
+    <t>readme</t>
+  </si>
+  <si>
+    <t>Что</t>
+  </si>
+  <si>
+    <t>Когда</t>
+  </si>
+  <si>
+    <t>Data Base</t>
+  </si>
+  <si>
+    <t>Разработка дизайна календаря</t>
+  </si>
+  <si>
+    <t>Разработка дизайна кнопок меню</t>
+  </si>
+  <si>
+    <t>Фикс ошибок</t>
+  </si>
+  <si>
+    <t>Тестировка работоспособности</t>
   </si>
 </sst>
 </file>
@@ -78,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -138,100 +153,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -240,42 +165,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,77 +460,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="C8" s="1">
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>8</v>
+      <c r="C10" s="6">
+        <v>31.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Участие.xlsx
+++ b/Участие.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Oshibki_novichka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EBC8A8-2BC3-4469-921F-787F3809DAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B5252E-967B-4235-BB1B-BF286EAFCDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Имя</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>Тестировка работоспособности</t>
+  </si>
+  <si>
+    <t>22.03 - 23.03</t>
+  </si>
+  <si>
+    <t>29.03 - 01.04</t>
+  </si>
+  <si>
+    <t>22.03 - 01.04</t>
+  </si>
+  <si>
+    <t>18.03 - 01.04</t>
+  </si>
+  <si>
+    <t>15.03 - 16.03</t>
+  </si>
+  <si>
+    <t>01.04</t>
+  </si>
+  <si>
+    <t>15.03 - 17.03</t>
+  </si>
+  <si>
+    <t>25.03 - 31.03</t>
   </si>
 </sst>
 </file>
@@ -165,20 +189,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,122 +490,122 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>23.03</v>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
-        <v>1.04</v>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
-        <v>1.04</v>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
-        <v>15.03</v>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
-        <v>15.03</v>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5">
-        <v>1.04</v>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
-        <v>16.03</v>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
-        <v>17.03</v>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6">
-        <v>31.03</v>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5">
-        <v>1.04</v>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
